--- a/data/trans_dic/P12_2_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2354801791083148</v>
+        <v>0.2393944607582476</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1752502251390959</v>
+        <v>0.1748927716128504</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1735832065233796</v>
+        <v>0.1744772496656962</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1878060419230574</v>
+        <v>0.188740304772551</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3550838876926724</v>
+        <v>0.3542148828996687</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2671764170599318</v>
+        <v>0.2673926166080355</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2711622281203466</v>
+        <v>0.2673988552721632</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2726553092063222</v>
+        <v>0.2710395481849892</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3166996764117621</v>
+        <v>0.3176787107788594</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2324639285823123</v>
+        <v>0.232218697448362</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2306569817479746</v>
+        <v>0.2296182427221326</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2454949970769995</v>
+        <v>0.242461282778229</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3093394935587405</v>
+        <v>0.3158752331145957</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2289137797372801</v>
+        <v>0.2249439148637128</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2225544352745235</v>
+        <v>0.2216411754806445</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2699931705100488</v>
+        <v>0.2671583067244567</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.418015221660221</v>
+        <v>0.4168739501174077</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3237756246902269</v>
+        <v>0.322985951339088</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3215430166132321</v>
+        <v>0.3214039982758919</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3355247194618454</v>
+        <v>0.3381430331661892</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.366276815507081</v>
+        <v>0.365902731111472</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2687517843056076</v>
+        <v>0.2689261064146495</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2662556739433778</v>
+        <v>0.266932206480641</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2956018243212339</v>
+        <v>0.2941331559335186</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1680476853421667</v>
+        <v>0.1676466753524923</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1396058130393981</v>
+        <v>0.1367636315885938</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1238625697970983</v>
+        <v>0.1268357239008435</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1178774153475535</v>
+        <v>0.1169265258370876</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2526866821607655</v>
+        <v>0.2557123082309662</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.214899040590339</v>
+        <v>0.2101866129637856</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1737371650952003</v>
+        <v>0.1751223321069865</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1868492566911035</v>
+        <v>0.1855495621311784</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2172475752400887</v>
+        <v>0.2176146193403325</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1862122489789484</v>
+        <v>0.1828976920159655</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1565984332193763</v>
+        <v>0.1581634720460709</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1605974079346079</v>
+        <v>0.1597053952923265</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2167045787770132</v>
+        <v>0.2185759452060486</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1871493528604695</v>
+        <v>0.1875613036360015</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1707821674928857</v>
+        <v>0.1715355454905637</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1613111198106746</v>
+        <v>0.1629331991817361</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.306879008831887</v>
+        <v>0.3103607709988294</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.268117058156657</v>
+        <v>0.2679193099182222</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2290068634086952</v>
+        <v>0.22673334971023</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2265452658652789</v>
+        <v>0.2257580007758689</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2548995175298904</v>
+        <v>0.2550279184937326</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2197452500496081</v>
+        <v>0.2204248637987176</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1927307976849888</v>
+        <v>0.1925306570253367</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1908805724405669</v>
+        <v>0.1890355323785315</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1305932074827209</v>
+        <v>0.1289488940990339</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1322753814489891</v>
+        <v>0.1329683203922054</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1026129044180598</v>
+        <v>0.1056987002045142</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1102845931313621</v>
+        <v>0.1088075825134593</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2135755925976873</v>
+        <v>0.2149999664848174</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1923046182681112</v>
+        <v>0.1913461013130958</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1450943139658551</v>
+        <v>0.1477454173606379</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1883369875890904</v>
+        <v>0.1902024791770827</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1763171311814852</v>
+        <v>0.1776653659075725</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.167113243217862</v>
+        <v>0.1674342814491505</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.13116576313794</v>
+        <v>0.1323666344350847</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1546136663071773</v>
+        <v>0.1543841382588594</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1761771615048402</v>
+        <v>0.1746492062500899</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1822891964582573</v>
+        <v>0.182261568070562</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1486677702731026</v>
+        <v>0.1512979659677755</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1510268876235793</v>
+        <v>0.1478836249894334</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2687152684911947</v>
+        <v>0.2698278208071793</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2491523089261796</v>
+        <v>0.2527349541886</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2026752117085943</v>
+        <v>0.2067091304698482</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2310832187075937</v>
+        <v>0.2317076851249373</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2121244989427162</v>
+        <v>0.2103615943639345</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2046082278764604</v>
+        <v>0.2068653790939431</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1670164191443711</v>
+        <v>0.1702634341750498</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1841661904362729</v>
+        <v>0.1842081197757683</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1523630784728604</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.234644878146123</v>
+        <v>0.2346448781461229</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.166688669679082</v>
+        <v>0.1647459038496013</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1380377630577101</v>
+        <v>0.1363181551591914</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1113155129441139</v>
+        <v>0.1116134562279871</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1903361364748717</v>
+        <v>0.1904430237356232</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2033244748969581</v>
+        <v>0.203040299798954</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2231042580611035</v>
+        <v>0.2275096196167491</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1345416171831711</v>
+        <v>0.1311128285046451</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2293913193903154</v>
+        <v>0.2293826087158311</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1932895827539577</v>
+        <v>0.1940842121259705</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1887736328343348</v>
+        <v>0.1893345352617768</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1289634008687561</v>
+        <v>0.1303117734373458</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2177570944861884</v>
+        <v>0.2164092425174786</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.243981323324558</v>
+        <v>0.241888529910881</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2079453353464996</v>
+        <v>0.2057075758579591</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1788307148867754</v>
+        <v>0.1724860655515325</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2443533219707683</v>
+        <v>0.2450006094564436</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2959901048179423</v>
+        <v>0.2983915302906116</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3134381436746791</v>
+        <v>0.3123767423274553</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2044005012278576</v>
+        <v>0.2040931923285059</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2779672966739303</v>
+        <v>0.2779720807603467</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2550044485380265</v>
+        <v>0.2515340382785565</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2472002575039757</v>
+        <v>0.2465951549705926</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1767599385307724</v>
+        <v>0.1775429130181947</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2544989344615631</v>
+        <v>0.2551953607863731</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1802805017598755</v>
+        <v>0.179059584714907</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.159507941765291</v>
+        <v>0.1594807801742607</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1446777505488906</v>
+        <v>0.1454799468003511</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1570895312717212</v>
+        <v>0.1570862912544312</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2787253512069482</v>
+        <v>0.2791675580822969</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2403708819253026</v>
+        <v>0.2416770286853465</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2083642578046066</v>
+        <v>0.2077048248271357</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2246482183765479</v>
+        <v>0.2239323903106841</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2349231894411343</v>
+        <v>0.2337697195576544</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2040268637324205</v>
+        <v>0.2055048770491269</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1810649874988267</v>
+        <v>0.1826493623438039</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1950899250476771</v>
+        <v>0.1951457946339348</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2079365105389633</v>
+        <v>0.2081980037856836</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1865023627731092</v>
+        <v>0.1869430128046572</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1696873695915107</v>
+        <v>0.1701080679933983</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1832125530882805</v>
+        <v>0.1819169854449992</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3091350325110876</v>
+        <v>0.3103258542559199</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2707401596260173</v>
+        <v>0.2715472834698265</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2369369697800952</v>
+        <v>0.2377003010038695</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2479409956052452</v>
+        <v>0.2463045030509417</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2554117427031144</v>
+        <v>0.2548607518032101</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2245380646864325</v>
+        <v>0.2244999069432459</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2007782421428901</v>
+        <v>0.2017036795115628</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2121876600958417</v>
+        <v>0.2130257394818626</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>137554</v>
+        <v>139840</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>182950</v>
+        <v>182577</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>195259</v>
+        <v>196265</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>93666</v>
+        <v>94132</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>327506</v>
+        <v>326704</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>298415</v>
+        <v>298656</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>340203</v>
+        <v>335482</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>169868</v>
+        <v>168861</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>477100</v>
+        <v>478575</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>502321</v>
+        <v>501791</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>548845</v>
+        <v>546373</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>275384</v>
+        <v>271981</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>180698</v>
+        <v>184516</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>238971</v>
+        <v>234827</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>250346</v>
+        <v>249318</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>134656</v>
+        <v>133242</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>385549</v>
+        <v>384497</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>361632</v>
+        <v>360750</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>403411</v>
+        <v>403237</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>209036</v>
+        <v>210667</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>551786</v>
+        <v>551223</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>580734</v>
+        <v>581111</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>633552</v>
+        <v>635161</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>331592</v>
+        <v>329944</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>181138</v>
+        <v>180705</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>136405</v>
+        <v>133628</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>112447</v>
+        <v>115146</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>113062</v>
+        <v>112150</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>267226</v>
+        <v>270425</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>234518</v>
+        <v>229375</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>174641</v>
+        <v>176034</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>208496</v>
+        <v>207045</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>463917</v>
+        <v>464701</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>385155</v>
+        <v>378299</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>299579</v>
+        <v>302573</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>333239</v>
+        <v>331388</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>233585</v>
+        <v>235602</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>182859</v>
+        <v>183261</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>155043</v>
+        <v>155726</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>154721</v>
+        <v>156277</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>324536</v>
+        <v>328218</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>292594</v>
+        <v>292378</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>230199</v>
+        <v>227913</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>252790</v>
+        <v>251912</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>544321</v>
+        <v>544595</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>454513</v>
+        <v>455919</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>368702</v>
+        <v>368319</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>396077</v>
+        <v>392248</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>146473</v>
+        <v>144628</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>116805</v>
+        <v>117417</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>84528</v>
+        <v>87070</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>115411</v>
+        <v>113865</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>212281</v>
+        <v>213697</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>168231</v>
+        <v>167392</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>111876</v>
+        <v>113920</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>197310</v>
+        <v>199264</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>373005</v>
+        <v>375857</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>293762</v>
+        <v>294326</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>209186</v>
+        <v>211101</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>323780</v>
+        <v>323299</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>197599</v>
+        <v>195886</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>160970</v>
+        <v>160946</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>122466</v>
+        <v>124633</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>158046</v>
+        <v>154757</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>267087</v>
+        <v>268193</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>217962</v>
+        <v>221096</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>156275</v>
+        <v>159385</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>242092</v>
+        <v>242747</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>448757</v>
+        <v>445027</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>359673</v>
+        <v>363640</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>266361</v>
+        <v>271539</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>385666</v>
+        <v>385754</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>74543</v>
+        <v>73674</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>69303</v>
+        <v>68439</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>56404</v>
+        <v>56555</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>185755</v>
+        <v>185859</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>69366</v>
+        <v>69269</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>101007</v>
+        <v>103002</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>65885</v>
+        <v>64206</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>207985</v>
+        <v>207977</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>152381</v>
+        <v>153008</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>180240</v>
+        <v>180775</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>128499</v>
+        <v>129842</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>409951</v>
+        <v>407414</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>109108</v>
+        <v>108173</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>104400</v>
+        <v>103277</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>90614</v>
+        <v>87399</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>238471</v>
+        <v>239103</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>100979</v>
+        <v>101799</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>141905</v>
+        <v>141424</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>100095</v>
+        <v>99944</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>252027</v>
+        <v>252032</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>201035</v>
+        <v>198299</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>236025</v>
+        <v>235447</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>176123</v>
+        <v>176903</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>479122</v>
+        <v>480433</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>582455</v>
+        <v>578511</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>543302</v>
+        <v>543209</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>486576</v>
+        <v>489274</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>546718</v>
+        <v>546707</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>923966</v>
+        <v>925432</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>849894</v>
+        <v>854512</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>733561</v>
+        <v>731240</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>829667</v>
+        <v>827023</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1537760</v>
+        <v>1530209</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1416329</v>
+        <v>1426589</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1246405</v>
+        <v>1257311</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1399473</v>
+        <v>1399874</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>671807</v>
+        <v>672652</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>635248</v>
+        <v>636749</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>570688</v>
+        <v>572103</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>637634</v>
+        <v>633125</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1024773</v>
+        <v>1028721</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>957273</v>
+        <v>960127</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>834154</v>
+        <v>836841</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>915691</v>
+        <v>909647</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1671874</v>
+        <v>1668267</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1558715</v>
+        <v>1558450</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1382106</v>
+        <v>1388476</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1522124</v>
+        <v>1528136</v>
       </c>
     </row>
     <row r="24">
